--- a/medicine/Pharmacie/1881_en_santé_et_médecine/1881_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1881_en_santé_et_médecine/1881_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1881_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1881_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1881 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1881_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1881_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>29 janvier[1] : le chirurgien viennois Theodor Billroth réussit la première ablation d'un cancer de l'estomac[2].
-19 septembre : le président des États-Unis, James A. Garfield, meurt de septicémie à la suite de soins médicaux inadaptés après l'attentat dont il a été victime le 2 juillet précédent[3].
-25 septembre : le gynécologue allemand Ferdinand Kehrer, directeur de la clinique obstétricale de l'Université de Heidelberg effectue une césarienne avec incision transversale du segment inférieur et suture de l'utérus[4].
-Le médecin autrichien Samuel Siegfried Karl von Basch conçoit un sphygmomanomètre pour mesurer la pression artérielle[5].
-Le médecin cubain Carlos Finlay découvre le rôle des moustiques dans les épidémies de fièvre jaune[6].
-L'ophtalmologiste londonien Warren Tay décrit la maladie de Tay-Sachs[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29 janvier : le chirurgien viennois Theodor Billroth réussit la première ablation d'un cancer de l'estomac.
+19 septembre : le président des États-Unis, James A. Garfield, meurt de septicémie à la suite de soins médicaux inadaptés après l'attentat dont il a été victime le 2 juillet précédent.
+25 septembre : le gynécologue allemand Ferdinand Kehrer, directeur de la clinique obstétricale de l'Université de Heidelberg effectue une césarienne avec incision transversale du segment inférieur et suture de l'utérus.
+Le médecin autrichien Samuel Siegfried Karl von Basch conçoit un sphygmomanomètre pour mesurer la pression artérielle.
+Le médecin cubain Carlos Finlay découvre le rôle des moustiques dans les épidémies de fièvre jaune.
+L'ophtalmologiste londonien Warren Tay décrit la maladie de Tay-Sachs.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1881_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1881_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Paul Bar (1853-1945) fait paraître Recherches pour servir a l'histoire de l'hydramnios (pathogénie)[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Paul Bar (1853-1945) fait paraître Recherches pour servir a l'histoire de l'hydramnios (pathogénie).</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1881_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1881_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médailles de la Royal Society
-Médaille Copley : Charles Adolphe Wurtz (1817-1884)[9].</t>
+Médaille Copley : Charles Adolphe Wurtz (1817-1884).</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1881_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1881_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>13 avril : Ludwig Binswanger (mort en 1966), psychiatre suisse.
 14 avril : Elizabeth Casson (morte en 1954), médecin britannique, pionnière de l'ergothérapie au Royaume-Uni.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1881_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1881_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>13 juin : Joseph Škoda (né en 1805), médecin austro-hongrois d’origine tchèque.
 1er juillet : Rudolf Hermann Lotze (né en 1817), philosophe, médecin et logicien allemand.
@@ -655,7 +677,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1881_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1881_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -673,7 +695,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Howard Silberman, Allan W. Silberman, Principles and Practice of Surgical Oncology: Multidisciplinary Approach to Difficult Problems, Lippincott Williams &amp; Wilkins, 2009 (ISBN 9780781765466, présentation en ligne)
